--- a/省市区地址处理/省市区.xlsx
+++ b/省市区地址处理/省市区.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\superman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDev\DotNetTest\省市区地址处理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44143DCE-41DE-4F51-AA42-832F8A3846F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430AF792-672A-4BED-8905-556EB3BFD41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6426" uniqueCount="3180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6426" uniqueCount="3183">
   <si>
     <r>
       <t>2020</t>
@@ -9599,6 +9599,18 @@
   </si>
   <si>
     <t>   3.为保证上下年度统计工作有效衔接，各级民政统计人员将在当年12月底与区划部门核对并调整统计系统中所有上报单位名称，同时编制发布本表。</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港特别行政区</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10020,8 +10032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3190" workbookViewId="0">
+      <selection activeCell="B3209" sqref="B3209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -77258,7 +77270,7 @@
         <v>710000</v>
       </c>
       <c r="B3208" s="7" t="s">
-        <v>3174</v>
+        <v>3180</v>
       </c>
       <c r="H3208" s="3"/>
       <c r="I3208" s="8">
@@ -77279,7 +77291,7 @@
         <v>810000</v>
       </c>
       <c r="B3209" s="7" t="s">
-        <v>3175</v>
+        <v>3181</v>
       </c>
       <c r="H3209" s="3"/>
       <c r="I3209" s="8">
@@ -77300,7 +77312,7 @@
         <v>820000</v>
       </c>
       <c r="B3210" s="7" t="s">
-        <v>3176</v>
+        <v>3182</v>
       </c>
       <c r="H3210" s="3"/>
       <c r="I3210" s="8">
